--- a/Local_MH_authorities.xlsx
+++ b/Local_MH_authorities.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\met48\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\met48\Desktop\MH_Dashboard_Tutorial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF6CCF0B-6581-4FDB-9F93-E05FB596613B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6889348A-5000-4E10-A4EF-23B8412999B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8430" yWindow="1425" windowWidth="19095" windowHeight="14175" xr2:uid="{AB340E57-3C23-446D-8C60-09C03DE71631}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AB340E57-3C23-446D-8C60-09C03DE71631}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="150">
   <si>
     <t xml:space="preserve">Local Authority </t>
   </si>
@@ -45,9 +45,6 @@
     <t>Address</t>
   </si>
   <si>
-    <t>Crisis Phone</t>
-  </si>
-  <si>
     <t>Main Phone 1</t>
   </si>
   <si>
@@ -118,6 +115,378 @@
   </si>
   <si>
     <t>Callahan, Jones, Shackleford, Stephens and Taylor</t>
+  </si>
+  <si>
+    <t>Bluebonnet Trails Community Servicesw</t>
+  </si>
+  <si>
+    <t>1009 N. Georgetown St., Round Rock, TX 78664</t>
+  </si>
+  <si>
+    <t>800-841-1255</t>
+  </si>
+  <si>
+    <t>844-309-6385</t>
+  </si>
+  <si>
+    <t>512-255-1720</t>
+  </si>
+  <si>
+    <t>https://bbtrails.org/</t>
+  </si>
+  <si>
+    <t>Bastrop, Burnet, Caldwell, Fayette, Gonzales, Guadalupe, Lee and Williamson</t>
+  </si>
+  <si>
+    <t>Border Region Behavioral Health Center</t>
+  </si>
+  <si>
+    <t>1500 Pappas St., Laredo, TX 78041</t>
+  </si>
+  <si>
+    <t>800-643-1102</t>
+  </si>
+  <si>
+    <t>956-794-3000</t>
+  </si>
+  <si>
+    <t>https://www.borderregion.org/</t>
+  </si>
+  <si>
+    <t>Jim Hogg, Starr, Webb and Zapata</t>
+  </si>
+  <si>
+    <t>Burke Center</t>
+  </si>
+  <si>
+    <t>2001 S. Medford Drive, Lufkin, TX 75905</t>
+  </si>
+  <si>
+    <t>800-392-8343</t>
+  </si>
+  <si>
+    <t>936-639-1141</t>
+  </si>
+  <si>
+    <t>http://myburke.org/</t>
+  </si>
+  <si>
+    <t>Angelina, Houston, Jasper, Nacogdoches, Newton, Polk, Sabine, San Augustine, San Jacinto, Shelby, Trinity and Tyler</t>
+  </si>
+  <si>
+    <t>Camino Real Community Services</t>
+  </si>
+  <si>
+    <t>19965 FM 3175 N., Lytle, TX 78052</t>
+  </si>
+  <si>
+    <t>800-543-5750</t>
+  </si>
+  <si>
+    <t>210-357-0300</t>
+  </si>
+  <si>
+    <t>http://www.caminorealcs.org/</t>
+  </si>
+  <si>
+    <t>Atascosa, Dimmit, Frio, La Salle, Karnes, Maverick, McMullen, Wilson and Zavala</t>
+  </si>
+  <si>
+    <t>The Center for Health Care Services</t>
+  </si>
+  <si>
+    <t>6800 Park Ten Blvd., Suite 200-S, San Antonio, TX 78213</t>
+  </si>
+  <si>
+    <t>800-316-9241</t>
+  </si>
+  <si>
+    <t>Crisis Phone 1</t>
+  </si>
+  <si>
+    <t>Crisis Phone 2</t>
+  </si>
+  <si>
+    <t>210-223-7233</t>
+  </si>
+  <si>
+    <t>210-261-1000</t>
+  </si>
+  <si>
+    <t>https://chcsbc.org/</t>
+  </si>
+  <si>
+    <t>Bexar</t>
+  </si>
+  <si>
+    <t>Center for Life Resources</t>
+  </si>
+  <si>
+    <t>408 Mulberry, Brownwood, TX 76801</t>
+  </si>
+  <si>
+    <t>800-458-7788</t>
+  </si>
+  <si>
+    <t>325-646-9574</t>
+  </si>
+  <si>
+    <t>https://cflr.us/ns/</t>
+  </si>
+  <si>
+    <t>Brown, Coleman, Comanche, Eastland, McCulloch, Mills and San Saba</t>
+  </si>
+  <si>
+    <t>304 S. 22nd St., Temple, TX 76501</t>
+  </si>
+  <si>
+    <t>Central Counties Services</t>
+  </si>
+  <si>
+    <t>800-888-4036</t>
+  </si>
+  <si>
+    <t>254-298-7000</t>
+  </si>
+  <si>
+    <t>https://centralcountiesservices.org/</t>
+  </si>
+  <si>
+    <t>Bell, Coryell, Hamilton, Lampasas and Milam</t>
+  </si>
+  <si>
+    <t>Central Plains Center</t>
+  </si>
+  <si>
+    <t>715 Houston St., Plainview, TX 79072</t>
+  </si>
+  <si>
+    <t>800-687-1300</t>
+  </si>
+  <si>
+    <t>806-291-4470</t>
+  </si>
+  <si>
+    <t>806-293-2636</t>
+  </si>
+  <si>
+    <t>https://centralplains.org/</t>
+  </si>
+  <si>
+    <t>Bailey, Briscoe, Castro, Floyd, Hale, Lamb, Motley, Parmer and Swisher</t>
+  </si>
+  <si>
+    <t>Coastal Plains Community Center</t>
+  </si>
+  <si>
+    <t>200 Marriott Dr., Portland, TX 78374</t>
+  </si>
+  <si>
+    <t>800-841-6467</t>
+  </si>
+  <si>
+    <t>361-777-3991</t>
+  </si>
+  <si>
+    <t>Toll Free</t>
+  </si>
+  <si>
+    <t>888-819-5312</t>
+  </si>
+  <si>
+    <t>http://www.coastalplainsctr.org/</t>
+  </si>
+  <si>
+    <t>Aransas, Bee, Brooks, Duval, Jim Wells, Kenedy, Kleberg, Live Oak and San Patricio</t>
+  </si>
+  <si>
+    <t>Community Healthcore</t>
+  </si>
+  <si>
+    <t>107 Woodbine Place, Longview, TX 75601</t>
+  </si>
+  <si>
+    <t>800-832-1009</t>
+  </si>
+  <si>
+    <t>903-758-2471</t>
+  </si>
+  <si>
+    <t>http://www.communityhealthcore.com/</t>
+  </si>
+  <si>
+    <t>Bowie, Cass, Gregg, Harrison, Marion, Panola, Red River, Rusk and Upshur</t>
+  </si>
+  <si>
+    <t>Denton County MHMR Center</t>
+  </si>
+  <si>
+    <t>2519 Scripture St., Denton, TX 76201</t>
+  </si>
+  <si>
+    <t>800-762-0157</t>
+  </si>
+  <si>
+    <t>800-942-5808</t>
+  </si>
+  <si>
+    <t>940-381-5000</t>
+  </si>
+  <si>
+    <t>https://www.dentonmhmr.org/</t>
+  </si>
+  <si>
+    <t>Denton</t>
+  </si>
+  <si>
+    <t>Emergence Health Network</t>
+  </si>
+  <si>
+    <t>1600 Montana Ave., El Paso, TX 79902</t>
+  </si>
+  <si>
+    <t>915-779-1800</t>
+  </si>
+  <si>
+    <t>915-887-3410</t>
+  </si>
+  <si>
+    <t>http://emergencehealthnetwork.org/</t>
+  </si>
+  <si>
+    <t>El Paso</t>
+  </si>
+  <si>
+    <t>Gulf Bend Center</t>
+  </si>
+  <si>
+    <t>6502 Nursery Drive, Suite 100, Victoria, TX 77904</t>
+  </si>
+  <si>
+    <t>877-723-3422</t>
+  </si>
+  <si>
+    <t>361-575-0611</t>
+  </si>
+  <si>
+    <t>http://www.gulfbend.org/</t>
+  </si>
+  <si>
+    <t>Calhoun, DeWitt, Goliad, Jackson, Lavaca, Refugio and Victoria</t>
+  </si>
+  <si>
+    <t>Gulf Coast Center</t>
+  </si>
+  <si>
+    <t>10000 Emmett F. Lowry Expressway, Suite 1220, Texas City, TX 77591</t>
+  </si>
+  <si>
+    <t>866-729-3848</t>
+  </si>
+  <si>
+    <t>409-763-2373</t>
+  </si>
+  <si>
+    <t>https://gulfcoastcenter.org/</t>
+  </si>
+  <si>
+    <t>Brazoria and Galveston</t>
+  </si>
+  <si>
+    <t>The Harris Center for Mental Health and IDD</t>
+  </si>
+  <si>
+    <t>9401 Southwest Freeway, Houston, TX 77074</t>
+  </si>
+  <si>
+    <t>866-970-4770</t>
+  </si>
+  <si>
+    <t>713-970-7000</t>
+  </si>
+  <si>
+    <t>https://www.theharriscenter.org/</t>
+  </si>
+  <si>
+    <t>Harris</t>
+  </si>
+  <si>
+    <t>Heart of Texas Region MHMR Center</t>
+  </si>
+  <si>
+    <t>110 S. 12th St., Waco, TX 76703</t>
+  </si>
+  <si>
+    <t>866-752-3451</t>
+  </si>
+  <si>
+    <t>254-776-1101</t>
+  </si>
+  <si>
+    <t>254-752-3451</t>
+  </si>
+  <si>
+    <t>http://www.hotrmhmr.org/</t>
+  </si>
+  <si>
+    <t>Bosque, Falls, Freestone, Hill, Limestone and McLennan</t>
+  </si>
+  <si>
+    <t>Helen Farabee Centers</t>
+  </si>
+  <si>
+    <t>1000 Brook St., Wichita Falls, TX 76301</t>
+  </si>
+  <si>
+    <t>800-621-8504</t>
+  </si>
+  <si>
+    <t>940-397-3143</t>
+  </si>
+  <si>
+    <t>https://www.helenfarabee.org/</t>
+  </si>
+  <si>
+    <t>Archer, Baylor, Childress, Clay, Cottle, Dickens, Foard, Hardeman, Haskell, Jack, King, Knox, Montague, Stonewall, Throckmorton, Wichita, Wilbarger, Wise and Young</t>
+  </si>
+  <si>
+    <t>Hill Country Mental Health and Developmental Disabilities Center</t>
+  </si>
+  <si>
+    <t>819 Water St. Suite 300 Kerrville, TX 78028</t>
+  </si>
+  <si>
+    <t>877-466-0660</t>
+  </si>
+  <si>
+    <t>833-426-4332</t>
+  </si>
+  <si>
+    <t>830-792-3300</t>
+  </si>
+  <si>
+    <t>https://www.hillcountry.org/</t>
+  </si>
+  <si>
+    <t>Bandera, Blanco, Comal, Edwards, Gillespie, Hays, Kendall, Kerr, Kimble, Kinney, Llano, Mason, Medina, Menard, Real, Schleicher, Sutton, Uvalde and Val Verde</t>
+  </si>
+  <si>
+    <t>Integral Care</t>
+  </si>
+  <si>
+    <t>1165 Airport Blvd., Austin, TX 78702</t>
+  </si>
+  <si>
+    <t>512-472-4357</t>
+  </si>
+  <si>
+    <t>844-398-8252</t>
+  </si>
+  <si>
+    <t>https://integralcare.org/</t>
+  </si>
+  <si>
+    <t>Travis</t>
   </si>
 </sst>
 </file>
@@ -486,23 +855,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB4EAB84-35AA-4D4C-8397-158B0912A747}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="57.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="60.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="72.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="31.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="31" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" customWidth="1"/>
+    <col min="5" max="6" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.42578125" customWidth="1"/>
+    <col min="8" max="8" width="38" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="147.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -510,91 +881,512 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+    </row>
+    <row r="2" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="B2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1"/>
+      <c r="E2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="G2" s="1"/>
+      <c r="H2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="I2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>16</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
         <v>17</v>
       </c>
-      <c r="D3" t="s">
+      <c r="H3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="I3" t="s">
         <v>19</v>
       </c>
-      <c r="G3" t="s">
+    </row>
+    <row r="4" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="B4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1"/>
+      <c r="E4" t="s">
         <v>23</v>
       </c>
-      <c r="D4" t="s">
+      <c r="H4" t="s">
         <v>24</v>
       </c>
-      <c r="F4" t="s">
+      <c r="I4" t="s">
         <v>25</v>
       </c>
-      <c r="G4" t="s">
+    </row>
+    <row r="5" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>26</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H7" t="s">
+        <v>43</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H9" t="s">
+        <v>58</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E10" t="s">
+        <v>63</v>
+      </c>
+      <c r="H10" t="s">
+        <v>64</v>
+      </c>
+      <c r="I10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H11" t="s">
+        <v>70</v>
+      </c>
+      <c r="I11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>72</v>
+      </c>
+      <c r="B12" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G12" s="1"/>
+      <c r="H12" t="s">
+        <v>77</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>79</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G13" t="s">
+        <v>84</v>
+      </c>
+      <c r="H13" t="s">
+        <v>85</v>
+      </c>
+      <c r="I13" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>87</v>
+      </c>
+      <c r="B14" t="s">
+        <v>88</v>
+      </c>
+      <c r="C14" t="s">
+        <v>89</v>
+      </c>
+      <c r="E14" t="s">
+        <v>90</v>
+      </c>
+      <c r="H14" t="s">
+        <v>91</v>
+      </c>
+      <c r="I14" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B15" t="s">
+        <v>94</v>
+      </c>
+      <c r="C15" t="s">
+        <v>95</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H15" t="s">
+        <v>98</v>
+      </c>
+      <c r="I15" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>100</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>106</v>
+      </c>
+      <c r="B17" t="s">
+        <v>107</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H17" t="s">
+        <v>110</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>112</v>
+      </c>
+      <c r="B18" t="s">
+        <v>113</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H18" t="s">
+        <v>116</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>118</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H19" t="s">
+        <v>122</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>124</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>131</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="H21" t="s">
+        <v>135</v>
+      </c>
+      <c r="I21" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>137</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H22" t="s">
+        <v>142</v>
+      </c>
+      <c r="I22" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>144</v>
+      </c>
+      <c r="B23" t="s">
+        <v>145</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="H23" t="s">
+        <v>148</v>
+      </c>
+      <c r="I23" t="s">
+        <v>149</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" xr:uid="{2307A471-F547-4022-8A6D-C1E866CD102B}"/>
-    <hyperlink ref="F3" r:id="rId2" xr:uid="{BCD3B7BF-F12B-4AEF-9448-7D293389074B}"/>
+    <hyperlink ref="H2" r:id="rId1" xr:uid="{2307A471-F547-4022-8A6D-C1E866CD102B}"/>
+    <hyperlink ref="H3" r:id="rId2" xr:uid="{BCD3B7BF-F12B-4AEF-9448-7D293389074B}"/>
+    <hyperlink ref="H16" r:id="rId3" xr:uid="{C4428903-A269-44D0-B4F4-AD01044243EB}"/>
+    <hyperlink ref="H20" r:id="rId4" xr:uid="{B7A7C765-F190-4DA9-9D14-352AA083DBF3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -602,16 +1394,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C55581E-870D-4C82-8502-F1F154E21E77}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>14</v>
+      <c r="A1" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{3E00179C-8C45-4FE8-968A-2F1566B958B0}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Local_MH_authorities.xlsx
+++ b/Local_MH_authorities.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\met48\Desktop\MH_Dashboard_Tutorial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6889348A-5000-4E10-A4EF-23B8412999B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A5F25B4-0A54-4424-A5B0-FF1C788EF7F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AB340E57-3C23-446D-8C60-09C03DE71631}"/>
+    <workbookView xWindow="750" yWindow="645" windowWidth="24660" windowHeight="14175" xr2:uid="{AB340E57-3C23-446D-8C60-09C03DE71631}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,20 +37,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="150">
-  <si>
-    <t xml:space="preserve">Local Authority </t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="261">
   <si>
     <t>Address</t>
   </si>
   <si>
-    <t>Main Phone 1</t>
-  </si>
-  <si>
-    <t>Main Phone 2</t>
-  </si>
-  <si>
     <t>Website</t>
   </si>
   <si>
@@ -201,12 +192,6 @@
     <t>800-316-9241</t>
   </si>
   <si>
-    <t>Crisis Phone 1</t>
-  </si>
-  <si>
-    <t>Crisis Phone 2</t>
-  </si>
-  <si>
     <t>210-223-7233</t>
   </si>
   <si>
@@ -288,9 +273,6 @@
     <t>361-777-3991</t>
   </si>
   <si>
-    <t>Toll Free</t>
-  </si>
-  <si>
     <t>888-819-5312</t>
   </si>
   <si>
@@ -487,6 +469,357 @@
   </si>
   <si>
     <t>Travis</t>
+  </si>
+  <si>
+    <t>Lakes Regional MHMR Center</t>
+  </si>
+  <si>
+    <t>400 Airport Road (P.O. Box 747), Terrell, TX 75160</t>
+  </si>
+  <si>
+    <t>972-524-4159</t>
+  </si>
+  <si>
+    <t>http://www.lakesregional.org/</t>
+  </si>
+  <si>
+    <t>Camp, Delta, Franklin, Hopkins, Lamar, Morris and Titus</t>
+  </si>
+  <si>
+    <t>LifePath Systems</t>
+  </si>
+  <si>
+    <t>1515 Heritage Drive, McKinney, TX 75069</t>
+  </si>
+  <si>
+    <t>877-422-5939</t>
+  </si>
+  <si>
+    <t>844-544-5939</t>
+  </si>
+  <si>
+    <t>972-422-5939</t>
+  </si>
+  <si>
+    <t>http://www.lifepathsystems.org/</t>
+  </si>
+  <si>
+    <t>Collin</t>
+  </si>
+  <si>
+    <t>MHMR Authority of Brazos Valley</t>
+  </si>
+  <si>
+    <t>1504 S. Texas Ave., Bryan, TX 77802</t>
+  </si>
+  <si>
+    <t>888-522-8262</t>
+  </si>
+  <si>
+    <t>800-282-6467</t>
+  </si>
+  <si>
+    <t>979-822-6467</t>
+  </si>
+  <si>
+    <t>https://mhmrabv.org/</t>
+  </si>
+  <si>
+    <t>Brazos, Burleson, Grimes, Leon, Madison, Robertson and Washington</t>
+  </si>
+  <si>
+    <t>MHMR Services for the Concho Valley</t>
+  </si>
+  <si>
+    <t>1501 West Beauregard, San Angelo, TX 76901-4004</t>
+  </si>
+  <si>
+    <t>800-375-8965</t>
+  </si>
+  <si>
+    <t>833-406-0857</t>
+  </si>
+  <si>
+    <t>325-658-7750</t>
+  </si>
+  <si>
+    <t>https://www.mhmrcv.org/</t>
+  </si>
+  <si>
+    <t>Coke, Concho, Crockett, Irion, Reagan, Sterling and Tom Green</t>
+  </si>
+  <si>
+    <t>MHMR of Tarrant County</t>
+  </si>
+  <si>
+    <t>3840 Hulen St., North Tower, Fort Worth, TX 76107</t>
+  </si>
+  <si>
+    <t>800-866-2465</t>
+  </si>
+  <si>
+    <t>817-335-3022</t>
+  </si>
+  <si>
+    <t>https://www.mhmrtarrant.org/</t>
+  </si>
+  <si>
+    <t>Tarrant</t>
+  </si>
+  <si>
+    <t>North Texas Behavioral Health Authority</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9441 LBJ Freeway, Suite 350, Dallas, TX 75243 </t>
+  </si>
+  <si>
+    <t>866-260-8000</t>
+  </si>
+  <si>
+    <t>877-653-6363</t>
+  </si>
+  <si>
+    <t>https://ntbha.org/</t>
+  </si>
+  <si>
+    <t>Dallas, Ellis, Hunt, Kaufman, Navarro and Rockwall</t>
+  </si>
+  <si>
+    <t>Nueces Center for Mental Health and Intellectual Disabilities</t>
+  </si>
+  <si>
+    <t>1630 S. Brownlee, Corpus Christi, TX 78404</t>
+  </si>
+  <si>
+    <t>888-767-4493</t>
+  </si>
+  <si>
+    <t>361-886-6900</t>
+  </si>
+  <si>
+    <t>https://www.ncmhid.org/</t>
+  </si>
+  <si>
+    <t>Nueces</t>
+  </si>
+  <si>
+    <t>Pecan Valley Centers for Behavioral and Developmental Healthcare</t>
+  </si>
+  <si>
+    <t>2101 W. Pearl St., Granbury, TX 76048</t>
+  </si>
+  <si>
+    <t>800-772-5987</t>
+  </si>
+  <si>
+    <t>817-579-4400</t>
+  </si>
+  <si>
+    <t>https://www.pecanvalley.org/</t>
+  </si>
+  <si>
+    <t>Erath, Hood, Johnson, Palo Pinto, Parker and Somervell</t>
+  </si>
+  <si>
+    <t>PermiaCare</t>
+  </si>
+  <si>
+    <t>401 E. Illinois Ave., Suite 403, Midland, TX 79701</t>
+  </si>
+  <si>
+    <t>844-420-3964</t>
+  </si>
+  <si>
+    <t>432-570-3333</t>
+  </si>
+  <si>
+    <t>www.pbmhmr.com/</t>
+  </si>
+  <si>
+    <t>Brewster, Culberson, Ector, Hudspeth, Jeff Davis, Midland, Pecos and Presidio</t>
+  </si>
+  <si>
+    <t>Spindletop Center</t>
+  </si>
+  <si>
+    <t>655 S. 8th St., Building A, Beaumont, TX 77701</t>
+  </si>
+  <si>
+    <t>800-937-8097</t>
+  </si>
+  <si>
+    <t>800-317-5809</t>
+  </si>
+  <si>
+    <t>409-839-1000</t>
+  </si>
+  <si>
+    <t>http://spindletopcenter.org/</t>
+  </si>
+  <si>
+    <t>Chambers, Hardin, Jefferson and Orange</t>
+  </si>
+  <si>
+    <t>StarCare Specialty Health System</t>
+  </si>
+  <si>
+    <t>904 Avenue O, Lubbock, TX 79408</t>
+  </si>
+  <si>
+    <t>800-687-7581</t>
+  </si>
+  <si>
+    <t>806-740-1414</t>
+  </si>
+  <si>
+    <t>806-766-0310</t>
+  </si>
+  <si>
+    <t>https://www.starcarelubbock.org/</t>
+  </si>
+  <si>
+    <t>Cochran, Crosby, Hockley, Lubbock and Lynn</t>
+  </si>
+  <si>
+    <t>Texana Center</t>
+  </si>
+  <si>
+    <t>4910 Airport Avenue, Building D, Rosenberg, TX 77471</t>
+  </si>
+  <si>
+    <t>800-633-5686</t>
+  </si>
+  <si>
+    <t>866-483-9262</t>
+  </si>
+  <si>
+    <t>281-239-1300</t>
+  </si>
+  <si>
+    <t>https://www.texanacenter.com/</t>
+  </si>
+  <si>
+    <t>Austin, Colorado, Fort Bend, Matagorda, Waller and Wharton</t>
+  </si>
+  <si>
+    <t>Texas Panhandle Centers</t>
+  </si>
+  <si>
+    <t>901 Wallace Blvd., Amarillo, TX 79106</t>
+  </si>
+  <si>
+    <t>800-692-4039</t>
+  </si>
+  <si>
+    <t>806-359-6699</t>
+  </si>
+  <si>
+    <t>806-358-1681</t>
+  </si>
+  <si>
+    <t>https://www.texaspanhandlecenters.org/</t>
+  </si>
+  <si>
+    <t>Armstrong, Carson, Collingsworth, Dallam, Deaf Smith, Donley, Gray, Hall, Hansford, Hartley, Hemphill, Hutchinson, Lipscomb, Moore, Ochiltree, Oldham, Potter, Randall, Roberts, Sherman and Wheeler</t>
+  </si>
+  <si>
+    <t>Texoma Community Center</t>
+  </si>
+  <si>
+    <t>315 W. McLain Drive, Sherman, TX 75092</t>
+  </si>
+  <si>
+    <t>877-277-2226</t>
+  </si>
+  <si>
+    <t>214-366-9407</t>
+  </si>
+  <si>
+    <t>903-957-4700</t>
+  </si>
+  <si>
+    <t>http://www.texomacc.org/</t>
+  </si>
+  <si>
+    <t>Cooke, Fannin and Grayson</t>
+  </si>
+  <si>
+    <t>Tri-County Behavioral Healthcare</t>
+  </si>
+  <si>
+    <t>233 Sgt Ed Holcomb Blvd S, Conroe, TX 77304</t>
+  </si>
+  <si>
+    <t>800-659-6994</t>
+  </si>
+  <si>
+    <t>936-521-6100</t>
+  </si>
+  <si>
+    <t>http://www.tricountyservices.org</t>
+  </si>
+  <si>
+    <t>Liberty, Montgomery and Walker</t>
+  </si>
+  <si>
+    <t>Tropical Texas Behavioral Health</t>
+  </si>
+  <si>
+    <t>1901 S. 24th Ave., Edinburg, TX 78540</t>
+  </si>
+  <si>
+    <t>877-289-7199</t>
+  </si>
+  <si>
+    <t>800-813-1233</t>
+  </si>
+  <si>
+    <t>956-289-7000</t>
+  </si>
+  <si>
+    <t>https://www.ttbh.org/</t>
+  </si>
+  <si>
+    <t>Cameron, Hidalgo and Willacy</t>
+  </si>
+  <si>
+    <t>West Texas Centers</t>
+  </si>
+  <si>
+    <t>319 Runnels St., Big Spring, TX 79720</t>
+  </si>
+  <si>
+    <t>800-375-4357</t>
+  </si>
+  <si>
+    <t>432-264-2650</t>
+  </si>
+  <si>
+    <t>432-263-0007</t>
+  </si>
+  <si>
+    <t>https://www.wtcmhmr.org/</t>
+  </si>
+  <si>
+    <t>Andrews, Borden, Crane, Dawson, Fisher, Gaines, Garza, Glasscock, Howard, Kent, Loving, Martin, Mitchell, Nolan, Reeves, Runnels, Scurry, Terrell, Terry, Upton, Ward, Winkler and Yoakum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Local_Authority </t>
+  </si>
+  <si>
+    <t>Crisis_Phone_1</t>
+  </si>
+  <si>
+    <t>Crisis_Phone_2</t>
+  </si>
+  <si>
+    <t>Main_Phone_1</t>
+  </si>
+  <si>
+    <t>Main_Phone_2</t>
+  </si>
+  <si>
+    <t>Toll_Free</t>
   </si>
 </sst>
 </file>
@@ -502,14 +835,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color rgb="FF1B1B1B"/>
-      <name val="Roboto"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1B1B1B"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -534,12 +869,12 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -855,10 +1190,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB4EAB84-35AA-4D4C-8397-158B0912A747}">
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -875,507 +1210,877 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>256</v>
+      </c>
+      <c r="D1" t="s">
+        <v>257</v>
+      </c>
+      <c r="E1" t="s">
+        <v>258</v>
+      </c>
+      <c r="F1" t="s">
+        <v>259</v>
+      </c>
+      <c r="G1" t="s">
+        <v>260</v>
+      </c>
+      <c r="H1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="I1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
-        <v>83</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I1" t="s">
+      <c r="D2" s="2"/>
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="F2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="G2" s="2"/>
+      <c r="H2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1" t="s">
+      <c r="I2" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="1"/>
-      <c r="H2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
         <v>14</v>
       </c>
-      <c r="B3" t="s">
+      <c r="H3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C3" t="s">
+      <c r="I3" t="s">
         <v>16</v>
       </c>
-      <c r="E3" t="s">
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="B4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I3" t="s">
+      <c r="C4" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="D4" s="2"/>
+      <c r="E4" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="H4" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="I4" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="1"/>
-      <c r="E4" t="s">
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>23</v>
       </c>
-      <c r="H4" t="s">
+      <c r="B5" t="s">
         <v>24</v>
       </c>
-      <c r="I4" t="s">
+      <c r="C5" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="D5" s="2"/>
+      <c r="E5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B5" t="s">
+      <c r="F5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="G5" s="2"/>
+      <c r="H5" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1" t="s">
+      <c r="I5" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="1" t="s">
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>30</v>
       </c>
-      <c r="G5" s="1"/>
-      <c r="H5" t="s">
+      <c r="B6" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="I5" t="s">
+      <c r="C6" s="2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="D6" s="2"/>
+      <c r="E6" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="H6" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="I6" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1" t="s">
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>36</v>
       </c>
-      <c r="H6" t="s">
+      <c r="B7" t="s">
         <v>37</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="C7" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="D7" s="2"/>
+      <c r="E7" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B7" t="s">
+      <c r="H7" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="I7" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1" t="s">
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>42</v>
       </c>
-      <c r="H7" t="s">
+      <c r="B8" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="C8" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="D8" s="2"/>
+      <c r="E8" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="H8" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="I8" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1" t="s">
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>48</v>
       </c>
-      <c r="H8" t="s">
+      <c r="B9" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="C9" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="D9" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="E9" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="H9" t="s">
         <v>53</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="I9" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="C10" t="s">
         <v>57</v>
       </c>
-      <c r="H9" t="s">
+      <c r="E10" t="s">
         <v>58</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="H10" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="I10" t="s">
         <v>60</v>
       </c>
-      <c r="B10" s="1" t="s">
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11" t="s">
         <v>61</v>
       </c>
-      <c r="C10" t="s">
-        <v>62</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="C11" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="H10" t="s">
+      <c r="E11" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="I10" t="s">
+      <c r="H11" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="I11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>67</v>
       </c>
-      <c r="B11" t="s">
-        <v>66</v>
-      </c>
-      <c r="C11" s="1" t="s">
+      <c r="B12" t="s">
         <v>68</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="C12" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="H11" t="s">
+      <c r="E12" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="I11" t="s">
+      <c r="F12" s="2" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="G12" s="2"/>
+      <c r="H12" t="s">
         <v>72</v>
       </c>
-      <c r="B12" t="s">
+      <c r="I12" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C12" s="1" t="s">
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>74</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="B13" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="C13" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="G12" s="1"/>
-      <c r="H12" t="s">
+      <c r="E13" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="G13" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="H13" t="s">
         <v>79</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="I13" t="s">
         <v>80</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="G13" t="s">
-        <v>84</v>
-      </c>
-      <c r="H13" t="s">
-        <v>85</v>
-      </c>
-      <c r="I13" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>81</v>
+      </c>
+      <c r="B14" t="s">
+        <v>82</v>
+      </c>
+      <c r="C14" t="s">
+        <v>83</v>
+      </c>
+      <c r="E14" t="s">
+        <v>84</v>
+      </c>
+      <c r="H14" t="s">
+        <v>85</v>
+      </c>
+      <c r="I14" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>87</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>88</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C15" t="s">
         <v>89</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E15" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="H14" t="s">
+      <c r="F15" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="I14" t="s">
+      <c r="H15" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="I15" t="s">
         <v>93</v>
       </c>
-      <c r="B15" t="s">
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>94</v>
       </c>
-      <c r="C15" t="s">
+      <c r="B16" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="C16" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="E16" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="H15" t="s">
+      <c r="H16" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="I15" t="s">
+      <c r="I16" s="2" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>100</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B17" t="s">
         <v>101</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C17" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E17" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="H17" t="s">
         <v>104</v>
       </c>
-      <c r="I16" s="1" t="s">
+      <c r="I17" s="2" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>106</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B18" t="s">
         <v>107</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C18" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E18" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="H17" t="s">
+      <c r="H18" t="s">
         <v>110</v>
       </c>
-      <c r="I17" s="1" t="s">
+      <c r="I18" s="2" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>112</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B19" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C19" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E19" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="H18" t="s">
+      <c r="H19" t="s">
         <v>116</v>
       </c>
-      <c r="I18" s="1" t="s">
+      <c r="I19" s="2" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>118</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B20" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C20" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="D20" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="H19" t="s">
+      <c r="E20" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="I19" s="1" t="s">
+      <c r="H20" s="1" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+      <c r="I20" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B20" s="1" t="s">
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>125</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="C21" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E21" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="H20" s="2" t="s">
+      <c r="H21" t="s">
         <v>129</v>
       </c>
-      <c r="I20" s="1" t="s">
+      <c r="I21" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>131</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B22" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C22" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E22" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="H21" t="s">
+      <c r="F22" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="I21" t="s">
+      <c r="H22" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+      <c r="I22" t="s">
         <v>137</v>
       </c>
-      <c r="B22" s="1" t="s">
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>138</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="B23" t="s">
         <v>139</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="C23" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="E23" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="H22" t="s">
+      <c r="F23" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="H23" t="s">
         <v>142</v>
       </c>
-      <c r="I22" t="s">
+      <c r="I23" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>144</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B24" t="s">
         <v>145</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C24" t="s">
+        <v>133</v>
+      </c>
+      <c r="E24" t="s">
         <v>146</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="H24" t="s">
         <v>147</v>
       </c>
-      <c r="F23" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="H23" t="s">
+      <c r="I24" t="s">
         <v>148</v>
       </c>
-      <c r="I23" t="s">
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>149</v>
+      </c>
+      <c r="B25" t="s">
+        <v>150</v>
+      </c>
+      <c r="C25" t="s">
+        <v>151</v>
+      </c>
+      <c r="E25" t="s">
+        <v>152</v>
+      </c>
+      <c r="F25" t="s">
+        <v>153</v>
+      </c>
+      <c r="H25" t="s">
+        <v>154</v>
+      </c>
+      <c r="I25" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>156</v>
+      </c>
+      <c r="B26" t="s">
+        <v>157</v>
+      </c>
+      <c r="C26" t="s">
+        <v>158</v>
+      </c>
+      <c r="E26" t="s">
+        <v>159</v>
+      </c>
+      <c r="F26" t="s">
+        <v>160</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="I26" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>163</v>
+      </c>
+      <c r="B27" t="s">
+        <v>164</v>
+      </c>
+      <c r="C27" t="s">
+        <v>165</v>
+      </c>
+      <c r="E27" t="s">
+        <v>166</v>
+      </c>
+      <c r="F27" t="s">
+        <v>167</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="I27" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>170</v>
+      </c>
+      <c r="B28" t="s">
+        <v>171</v>
+      </c>
+      <c r="C28" t="s">
+        <v>172</v>
+      </c>
+      <c r="E28" t="s">
+        <v>173</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="I28" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>176</v>
+      </c>
+      <c r="B29" t="s">
+        <v>177</v>
+      </c>
+      <c r="C29" t="s">
+        <v>178</v>
+      </c>
+      <c r="E29" t="s">
+        <v>179</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="I29" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>182</v>
+      </c>
+      <c r="B30" t="s">
+        <v>183</v>
+      </c>
+      <c r="C30" t="s">
+        <v>184</v>
+      </c>
+      <c r="E30" t="s">
+        <v>185</v>
+      </c>
+      <c r="H30" t="s">
+        <v>186</v>
+      </c>
+      <c r="I30" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>188</v>
+      </c>
+      <c r="B31" t="s">
+        <v>189</v>
+      </c>
+      <c r="C31" t="s">
+        <v>190</v>
+      </c>
+      <c r="E31" t="s">
+        <v>191</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="I31" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>194</v>
+      </c>
+      <c r="B32" t="s">
+        <v>195</v>
+      </c>
+      <c r="C32" t="s">
+        <v>196</v>
+      </c>
+      <c r="E32" t="s">
+        <v>197</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="I32" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>200</v>
+      </c>
+      <c r="B33" t="s">
+        <v>201</v>
+      </c>
+      <c r="C33" t="s">
+        <v>202</v>
+      </c>
+      <c r="E33" t="s">
+        <v>203</v>
+      </c>
+      <c r="F33" t="s">
+        <v>204</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="I33" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>207</v>
+      </c>
+      <c r="B34" t="s">
+        <v>208</v>
+      </c>
+      <c r="C34" t="s">
+        <v>209</v>
+      </c>
+      <c r="D34" t="s">
+        <v>210</v>
+      </c>
+      <c r="E34" t="s">
+        <v>211</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="I34" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>214</v>
+      </c>
+      <c r="B35" t="s">
+        <v>215</v>
+      </c>
+      <c r="C35" t="s">
+        <v>216</v>
+      </c>
+      <c r="E35" t="s">
+        <v>217</v>
+      </c>
+      <c r="F35" t="s">
+        <v>218</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="I35" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>221</v>
+      </c>
+      <c r="B36" t="s">
+        <v>222</v>
+      </c>
+      <c r="C36" t="s">
+        <v>223</v>
+      </c>
+      <c r="D36" t="s">
+        <v>224</v>
+      </c>
+      <c r="E36" t="s">
+        <v>225</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="I36" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>228</v>
+      </c>
+      <c r="B37" t="s">
+        <v>229</v>
+      </c>
+      <c r="C37" t="s">
+        <v>230</v>
+      </c>
+      <c r="E37" t="s">
+        <v>231</v>
+      </c>
+      <c r="G37" t="s">
+        <v>232</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="I37" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>235</v>
+      </c>
+      <c r="B38" t="s">
+        <v>236</v>
+      </c>
+      <c r="C38" t="s">
+        <v>237</v>
+      </c>
+      <c r="E38" t="s">
+        <v>238</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="I38" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>241</v>
+      </c>
+      <c r="B39" t="s">
+        <v>242</v>
+      </c>
+      <c r="C39" t="s">
+        <v>243</v>
+      </c>
+      <c r="E39" t="s">
+        <v>244</v>
+      </c>
+      <c r="F39" t="s">
+        <v>245</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="I39" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>248</v>
+      </c>
+      <c r="B40" t="s">
+        <v>249</v>
+      </c>
+      <c r="C40" t="s">
+        <v>250</v>
+      </c>
+      <c r="E40" t="s">
+        <v>251</v>
+      </c>
+      <c r="F40" t="s">
+        <v>252</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="I40" t="s">
+        <v>254</v>
       </c>
     </row>
   </sheetData>
@@ -1384,9 +2089,23 @@
     <hyperlink ref="H3" r:id="rId2" xr:uid="{BCD3B7BF-F12B-4AEF-9448-7D293389074B}"/>
     <hyperlink ref="H16" r:id="rId3" xr:uid="{C4428903-A269-44D0-B4F4-AD01044243EB}"/>
     <hyperlink ref="H20" r:id="rId4" xr:uid="{B7A7C765-F190-4DA9-9D14-352AA083DBF3}"/>
+    <hyperlink ref="H26" r:id="rId5" xr:uid="{15776549-A781-41AA-8F3D-C201FAC54370}"/>
+    <hyperlink ref="H27" r:id="rId6" xr:uid="{46814A21-7B03-4E1F-892A-4D20CB9143C5}"/>
+    <hyperlink ref="H28" r:id="rId7" xr:uid="{46939715-666A-48B5-8460-49560870F7B8}"/>
+    <hyperlink ref="H29" r:id="rId8" xr:uid="{0BBD9AD7-3F1A-4179-996E-E16AC3608F60}"/>
+    <hyperlink ref="H31" r:id="rId9" xr:uid="{B47C35C0-9A77-4925-8237-93FE011FD14A}"/>
+    <hyperlink ref="H32" r:id="rId10" display="http://www.pbmhmr.com/" xr:uid="{E82813FC-EAB6-4FFC-8F2D-7FC39F3A5AE0}"/>
+    <hyperlink ref="H33" r:id="rId11" xr:uid="{6580A1C8-5A6E-4535-A473-B124293CF525}"/>
+    <hyperlink ref="H34" r:id="rId12" xr:uid="{35B11C28-F146-4D69-8CB9-1543417D9AC2}"/>
+    <hyperlink ref="H35" r:id="rId13" xr:uid="{DE2B61BE-8D2F-4A62-AF75-774D30406E7E}"/>
+    <hyperlink ref="H36" r:id="rId14" xr:uid="{22DE3C26-3993-4C4B-9E94-2AD9051244E5}"/>
+    <hyperlink ref="H37" r:id="rId15" xr:uid="{BD376091-ECB7-44FE-9867-2C58DCEDB018}"/>
+    <hyperlink ref="H38" r:id="rId16" display="http://www.tricountyservices.org/" xr:uid="{1A39663E-9DED-4CD4-B875-623C2E82B316}"/>
+    <hyperlink ref="H39" r:id="rId17" xr:uid="{3E9EF849-A06E-4BFB-ABC8-7C4730F66606}"/>
+    <hyperlink ref="H40" r:id="rId18" xr:uid="{20DFA3DB-DE5F-4B4C-8903-194A90AF431E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId19"/>
 </worksheet>
 </file>
 
@@ -1394,15 +2113,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C55581E-870D-4C82-8502-F1F154E21E77}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>13</v>
+      <c r="A1" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
